--- a/ReproBaseAPI/completion_script/validation/data/S1IPF03.40ESRIN.xlsx
+++ b/ReproBaseAPI/completion_script/validation/data/S1IPF03.40ESRIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\cbouzina\Documents\EC\COPERNICUS\RRPP\S1AUX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C3EC0-04F7-4C5D-B954-5288FB351A5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F23046-DDCF-49EE-8E87-D8C9DE6A515F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1030" windowWidth="17480" windowHeight="9170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1IPF03.40" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="225">
   <si>
     <t>AUX_PP1</t>
   </si>
@@ -1015,7 +1015,72 @@
     <t>GetReproBaselineListForPeriod(...)</t>
   </si>
   <si>
-    <t>20190228T092500-20190312T092500</t>
+    <t>S1__AUX_SCS_V20210622T130000_G20210621T100158</t>
+  </si>
+  <si>
+    <t>20190228T092500-20210622T130000</t>
+  </si>
+  <si>
+    <t>20210622T130000-21000101T000000</t>
+  </si>
+  <si>
+    <t>20160422T000000-20171017T080000</t>
+  </si>
+  <si>
+    <t>20171017T080000-20190514T090000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20190514T090000-20210622T130000
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210622T130000-21000101T000000
+ </t>
+  </si>
+  <si>
+    <r>
+      <t>GetReproBaselineListForPeriod(“S1SAR”, “B”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2016-04-22T00:00:00.000Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”, “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2017-10-17T00:00:00.000Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,”L2”)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1448,6 +1513,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,14 +1537,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1487,2414 +1549,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="410">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill>
@@ -4705,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FC95E3-7B4F-451B-993D-D132FC3BDB19}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B61"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4760,13 +2431,13 @@
       <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -4787,15 +2458,15 @@
       <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="53" t="s">
         <v>81</v>
       </c>
       <c r="I3" s="31"/>
@@ -4808,9 +2479,9 @@
       <c r="A4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="33" t="s">
         <v>0</v>
       </c>
@@ -4829,11 +2500,11 @@
       <c r="A5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -4854,9 +2525,9 @@
       <c r="A6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
@@ -4875,9 +2546,9 @@
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
@@ -4894,9 +2565,9 @@
       <c r="A8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="33" t="s">
         <v>6</v>
       </c>
@@ -4913,9 +2584,9 @@
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="33" t="s">
         <v>7</v>
       </c>
@@ -4932,9 +2603,9 @@
       <c r="A10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="33" t="s">
         <v>134</v>
       </c>
@@ -4951,9 +2622,9 @@
       <c r="A11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="59"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="38" t="s">
         <v>135</v>
       </c>
@@ -4970,13 +2641,13 @@
       <c r="A12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E12" s="33" t="s">
@@ -4997,9 +2668,9 @@
       <c r="A13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="33" t="s">
         <v>1</v>
       </c>
@@ -5018,9 +2689,9 @@
       <c r="A14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="33" t="s">
         <v>0</v>
       </c>
@@ -5039,11 +2710,11 @@
       <c r="A15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="33" t="s">
@@ -5064,9 +2735,9 @@
       <c r="A16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="33" t="s">
         <v>3</v>
       </c>
@@ -5085,9 +2756,9 @@
       <c r="A17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="33" t="s">
         <v>5</v>
       </c>
@@ -5104,9 +2775,9 @@
       <c r="A18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="33" t="s">
         <v>6</v>
       </c>
@@ -5123,9 +2794,9 @@
       <c r="A19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="33" t="s">
         <v>7</v>
       </c>
@@ -5142,9 +2813,9 @@
       <c r="A20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="33" t="s">
         <v>134</v>
       </c>
@@ -5161,9 +2832,9 @@
       <c r="A21" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="38" t="s">
         <v>135</v>
       </c>
@@ -5180,13 +2851,13 @@
       <c r="A22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="33" t="s">
@@ -5207,9 +2878,9 @@
       <c r="A23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="33" t="s">
         <v>1</v>
       </c>
@@ -5228,9 +2899,9 @@
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="33" t="s">
         <v>0</v>
       </c>
@@ -5249,11 +2920,11 @@
       <c r="A25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E25" s="33" t="s">
@@ -5274,9 +2945,9 @@
       <c r="A26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="33" t="s">
         <v>3</v>
       </c>
@@ -5295,9 +2966,9 @@
       <c r="A27" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="33" t="s">
         <v>5</v>
       </c>
@@ -5314,9 +2985,9 @@
       <c r="A28" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="58"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="33" t="s">
         <v>6</v>
       </c>
@@ -5333,9 +3004,9 @@
       <c r="A29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="58"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="33" t="s">
         <v>7</v>
       </c>
@@ -5352,9 +3023,9 @@
       <c r="A30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="58"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="33" t="s">
         <v>134</v>
       </c>
@@ -5371,9 +3042,9 @@
       <c r="A31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="35" t="s">
         <v>135</v>
       </c>
@@ -5390,13 +3061,13 @@
       <c r="A32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E32" s="33" t="s">
@@ -5417,9 +3088,9 @@
       <c r="A33" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="33" t="s">
         <v>1</v>
       </c>
@@ -5438,9 +3109,9 @@
       <c r="A34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="33" t="s">
         <v>0</v>
       </c>
@@ -5459,11 +3130,11 @@
       <c r="A35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="55" t="s">
+      <c r="B35" s="63"/>
+      <c r="C35" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E35" s="33" t="s">
@@ -5484,9 +3155,9 @@
       <c r="A36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="58"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="33" t="s">
         <v>3</v>
       </c>
@@ -5505,9 +3176,9 @@
       <c r="A37" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="33" t="s">
         <v>5</v>
       </c>
@@ -5524,9 +3195,9 @@
       <c r="A38" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="33" t="s">
         <v>6</v>
       </c>
@@ -5543,9 +3214,9 @@
       <c r="A39" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="58"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="33" t="s">
         <v>7</v>
       </c>
@@ -5562,9 +3233,9 @@
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="33" t="s">
         <v>134</v>
       </c>
@@ -5581,9 +3252,9 @@
       <c r="A41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="35" t="s">
         <v>135</v>
       </c>
@@ -5600,13 +3271,13 @@
       <c r="A42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E42" s="33" t="s">
@@ -5627,9 +3298,9 @@
       <c r="A43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="33" t="s">
         <v>1</v>
       </c>
@@ -5648,9 +3319,9 @@
       <c r="A44" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="33" t="s">
         <v>0</v>
       </c>
@@ -5669,11 +3340,11 @@
       <c r="A45" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="55" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E45" s="33" t="s">
@@ -5694,9 +3365,9 @@
       <c r="A46" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="58"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="33" t="s">
         <v>3</v>
       </c>
@@ -5715,9 +3386,9 @@
       <c r="A47" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="58"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="33" t="s">
         <v>5</v>
       </c>
@@ -5734,9 +3405,9 @@
       <c r="A48" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="58"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="33" t="s">
         <v>6</v>
       </c>
@@ -5753,9 +3424,9 @@
       <c r="A49" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="58"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="33" t="s">
         <v>7</v>
       </c>
@@ -5772,9 +3443,9 @@
       <c r="A50" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="58"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="33" t="s">
         <v>134</v>
       </c>
@@ -5791,9 +3462,9 @@
       <c r="A51" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="35" t="s">
         <v>135</v>
       </c>
@@ -5810,13 +3481,13 @@
       <c r="A52" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="55" t="s">
+      <c r="B52" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E52" s="33" t="s">
@@ -5837,9 +3508,9 @@
       <c r="A53" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="33" t="s">
         <v>1</v>
       </c>
@@ -5858,9 +3529,9 @@
       <c r="A54" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="33" t="s">
         <v>0</v>
       </c>
@@ -5879,11 +3550,11 @@
       <c r="A55" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="55" t="s">
+      <c r="B55" s="63"/>
+      <c r="C55" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E55" s="33" t="s">
@@ -5904,9 +3575,9 @@
       <c r="A56" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="58"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="33" t="s">
         <v>3</v>
       </c>
@@ -5925,9 +3596,9 @@
       <c r="A57" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="58"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="33" t="s">
         <v>5</v>
       </c>
@@ -5944,9 +3615,9 @@
       <c r="A58" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="58"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="33" t="s">
         <v>6</v>
       </c>
@@ -5963,9 +3634,9 @@
       <c r="A59" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="58"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="33" t="s">
         <v>7</v>
       </c>
@@ -5982,9 +3653,9 @@
       <c r="A60" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="58"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="33" t="s">
         <v>134</v>
       </c>
@@ -6001,9 +3672,9 @@
       <c r="A61" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="60"/>
       <c r="E61" s="35" t="s">
         <v>135</v>
       </c>
@@ -6016,214 +3687,228 @@
       <c r="J61" s="48"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
       <c r="H62" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="48">
+        <v>7</v>
+      </c>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
+        <v>14</v>
+      </c>
+      <c r="B63" s="63"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="I63" s="31"/>
+      <c r="J63" s="48">
+        <v>7</v>
+      </c>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
+        <v>14</v>
+      </c>
+      <c r="B64" s="63"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
       <c r="H64" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I64" s="45"/>
-      <c r="J64" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+      <c r="I64" s="31"/>
+      <c r="J64" s="48">
+        <v>7</v>
+      </c>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="63"/>
+      <c r="C65" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
       <c r="H65" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="50">
+        <v>217</v>
+      </c>
+      <c r="I65" s="31"/>
+      <c r="J65" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="B66" s="63"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
       <c r="H66" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="I66" s="31"/>
+      <c r="J66" s="48">
+        <v>7</v>
+      </c>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="B67" s="63"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="59"/>
       <c r="E67" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
       <c r="H67" t="s">
-        <v>175</v>
-      </c>
-      <c r="I67" s="33"/>
-    </row>
-    <row r="68" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="I67" s="31"/>
+      <c r="J67" s="48"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="B68" s="63"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
       <c r="H68" t="s">
-        <v>175</v>
-      </c>
-      <c r="I68" s="33"/>
-    </row>
-    <row r="69" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="I68" s="31"/>
+      <c r="J68" s="48"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="B69" s="63"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
       <c r="H69" t="s">
-        <v>175</v>
-      </c>
-      <c r="I69" s="33"/>
-    </row>
-    <row r="70" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="48"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="B70" s="63"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
       <c r="H70" t="s">
-        <v>175</v>
-      </c>
-      <c r="I70" s="33"/>
-    </row>
-    <row r="71" spans="1:10" s="39" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I70" s="31"/>
+      <c r="J70" s="48"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" s="17" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="64"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" t="s">
+        <v>216</v>
+      </c>
+      <c r="I71" s="31"/>
+      <c r="J71" s="48"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="I71" s="38"/>
-      <c r="J71" s="51"/>
-    </row>
-    <row r="72" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B72" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="66" t="s">
+      <c r="B72" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="56" t="s">
-        <v>167</v>
+      <c r="D72" s="57" t="s">
+        <v>166</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>2</v>
@@ -6231,62 +3916,62 @@
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
       <c r="H72" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I72" s="33"/>
       <c r="J72" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="56"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
       <c r="H73" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I73" s="33"/>
       <c r="J73" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
+        <v>41</v>
+      </c>
+      <c r="B74" s="54"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="33" t="s">
         <v>0</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
       <c r="H74" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I74" s="33"/>
+        <v>210</v>
+      </c>
+      <c r="I74" s="45"/>
       <c r="J74" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="55" t="s">
+      <c r="B75" s="54"/>
+      <c r="C75" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E75" s="33" t="s">
@@ -6295,179 +3980,802 @@
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
       <c r="H75" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I75" s="33"/>
       <c r="J75" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="58"/>
+        <v>164</v>
+      </c>
+      <c r="B76" s="54"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="59"/>
       <c r="E76" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
       <c r="H76" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I76" s="33"/>
       <c r="J76" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="58"/>
+        <v>41</v>
+      </c>
+      <c r="B77" s="54"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="33" t="s">
         <v>5</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
       <c r="H77" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="I77" s="33"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="58"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="I78" s="33"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="I79" s="33"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="58"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="33" t="s">
         <v>134</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
       <c r="H80" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="I80" s="33"/>
     </row>
-    <row r="81" spans="1:10" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" s="39" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="54"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="59"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="60"/>
       <c r="E81" s="38" t="s">
         <v>135</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
-      <c r="H81" s="39" t="s">
-        <v>176</v>
+      <c r="H81" t="s">
+        <v>224</v>
       </c>
       <c r="I81" s="38"/>
       <c r="J81" s="51"/>
     </row>
+    <row r="82" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I82" s="33"/>
+      <c r="J82" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="54"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I83" s="33"/>
+      <c r="J83" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="54"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I84" s="45"/>
+      <c r="J84" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="54"/>
+      <c r="C85" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I85" s="33"/>
+      <c r="J85" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="54"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86" s="33"/>
+      <c r="J86" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="54"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" t="s">
+        <v>216</v>
+      </c>
+      <c r="I87" s="33"/>
+    </row>
+    <row r="88" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="54"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" t="s">
+        <v>216</v>
+      </c>
+      <c r="I88" s="33"/>
+    </row>
+    <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="54"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" t="s">
+        <v>216</v>
+      </c>
+      <c r="I89" s="33"/>
+    </row>
+    <row r="90" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="54"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" t="s">
+        <v>216</v>
+      </c>
+      <c r="I90" s="33"/>
+    </row>
+    <row r="91" spans="1:10" s="39" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="55"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" t="s">
+        <v>216</v>
+      </c>
+      <c r="I91" s="38"/>
+      <c r="J91" s="51"/>
+    </row>
+    <row r="92" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I92" s="33"/>
+      <c r="J92" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="54"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="33"/>
+      <c r="J93" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="54"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I94" s="33"/>
+      <c r="J94" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="54"/>
+      <c r="C95" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I95" s="33"/>
+      <c r="J95" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="54"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" s="33"/>
+      <c r="J96" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="54"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" t="s">
+        <v>216</v>
+      </c>
+      <c r="I97" s="33"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="54"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" t="s">
+        <v>216</v>
+      </c>
+      <c r="I98" s="33"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="54"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" t="s">
+        <v>216</v>
+      </c>
+      <c r="I99" s="33"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="54"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" t="s">
+        <v>216</v>
+      </c>
+      <c r="I100" s="33"/>
+    </row>
+    <row r="101" spans="1:10" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="55"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" t="s">
+        <v>216</v>
+      </c>
+      <c r="I101" s="38"/>
+      <c r="J101" s="51"/>
+    </row>
+    <row r="102" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I102" s="33"/>
+      <c r="J102" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="54"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I103" s="33"/>
+      <c r="J103" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="54"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="54"/>
+      <c r="C105" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I105" s="33"/>
+      <c r="J105" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="54"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I106" s="33"/>
+      <c r="J106" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="54"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" t="s">
+        <v>216</v>
+      </c>
+      <c r="I107" s="33"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" s="54"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" t="s">
+        <v>216</v>
+      </c>
+      <c r="I108" s="33"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="54"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" t="s">
+        <v>216</v>
+      </c>
+      <c r="I109" s="33"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="54"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" t="s">
+        <v>216</v>
+      </c>
+      <c r="I110" s="33"/>
+    </row>
+    <row r="111" spans="1:10" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="55"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" t="s">
+        <v>216</v>
+      </c>
+      <c r="I111" s="38"/>
+      <c r="J111" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="55">
+    <mergeCell ref="B102:B111"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C85:C91"/>
+    <mergeCell ref="D85:D91"/>
     <mergeCell ref="B62:B71"/>
     <mergeCell ref="C62:C64"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="C65:C71"/>
     <mergeCell ref="D65:D71"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="B92:B101"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D95:D101"/>
     <mergeCell ref="B72:B81"/>
     <mergeCell ref="C72:C74"/>
     <mergeCell ref="D72:D74"/>
     <mergeCell ref="C75:C81"/>
     <mergeCell ref="D75:D81"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="D5:D11"/>
   </mergeCells>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" dxfId="96" priority="4">
+  <conditionalFormatting sqref="H96">
+    <cfRule type="expression" dxfId="67" priority="8">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="expression" dxfId="66" priority="6">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="expression" dxfId="93" priority="2">
+    <cfRule type="expression" dxfId="65" priority="11">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="73" priority="7">
+  <conditionalFormatting sqref="H94">
+    <cfRule type="expression" dxfId="64" priority="9">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="64" priority="5">
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="63" priority="4">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6536,13 +4844,13 @@
       <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -6566,9 +4874,9 @@
       <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="33" t="s">
         <v>1</v>
       </c>
@@ -6590,9 +4898,9 @@
       <c r="A4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="33" t="s">
         <v>0</v>
       </c>
@@ -6614,11 +4922,11 @@
       <c r="A5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -6642,9 +4950,9 @@
       <c r="A6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
@@ -6666,9 +4974,9 @@
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
@@ -6688,9 +4996,9 @@
       <c r="A8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="33" t="s">
         <v>6</v>
       </c>
@@ -6710,9 +5018,9 @@
       <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="33" t="s">
         <v>7</v>
       </c>
@@ -6732,9 +5040,9 @@
       <c r="A10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="33" t="s">
         <v>134</v>
       </c>
@@ -6754,9 +5062,9 @@
       <c r="A11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="59"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="38" t="s">
         <v>135</v>
       </c>
@@ -6776,13 +5084,13 @@
       <c r="A12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="68" t="s">
         <v>166</v>
       </c>
       <c r="E12" s="33" t="s">
@@ -6806,9 +5114,9 @@
       <c r="A13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="33" t="s">
         <v>1</v>
       </c>
@@ -6830,9 +5138,9 @@
       <c r="A14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="33" t="s">
         <v>0</v>
       </c>
@@ -6854,11 +5162,11 @@
       <c r="A15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="33" t="s">
@@ -6882,9 +5190,9 @@
       <c r="A16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="33" t="s">
         <v>3</v>
       </c>
@@ -6906,9 +5214,9 @@
       <c r="A17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="33" t="s">
         <v>5</v>
       </c>
@@ -6928,9 +5236,9 @@
       <c r="A18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="33" t="s">
         <v>6</v>
       </c>
@@ -6950,9 +5258,9 @@
       <c r="A19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="33" t="s">
         <v>7</v>
       </c>
@@ -6972,9 +5280,9 @@
       <c r="A20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="33" t="s">
         <v>134</v>
       </c>
@@ -6994,9 +5302,9 @@
       <c r="A21" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="38" t="s">
         <v>135</v>
       </c>
@@ -7016,13 +5324,13 @@
       <c r="A22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E22" s="33" t="s">
@@ -7046,9 +5354,9 @@
       <c r="A23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="33" t="s">
         <v>1</v>
       </c>
@@ -7070,9 +5378,9 @@
       <c r="A24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="33" t="s">
         <v>0</v>
       </c>
@@ -7094,11 +5402,11 @@
       <c r="A25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E25" s="33" t="s">
@@ -7122,9 +5430,9 @@
       <c r="A26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="33" t="s">
         <v>3</v>
       </c>
@@ -7146,9 +5454,9 @@
       <c r="A27" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="33" t="s">
         <v>5</v>
       </c>
@@ -7168,9 +5476,9 @@
       <c r="A28" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="58"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="33" t="s">
         <v>6</v>
       </c>
@@ -7190,9 +5498,9 @@
       <c r="A29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="58"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="33" t="s">
         <v>7</v>
       </c>
@@ -7212,9 +5520,9 @@
       <c r="A30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="58"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="33" t="s">
         <v>134</v>
       </c>
@@ -7234,9 +5542,9 @@
       <c r="A31" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="38" t="s">
         <v>135</v>
       </c>
@@ -7256,13 +5564,13 @@
       <c r="A32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E32" s="33" t="s">
@@ -7286,9 +5594,9 @@
       <c r="A33" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="33" t="s">
         <v>1</v>
       </c>
@@ -7310,9 +5618,9 @@
       <c r="A34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="33" t="s">
         <v>0</v>
       </c>
@@ -7334,11 +5642,11 @@
       <c r="A35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="55" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E35" s="33" t="s">
@@ -7362,9 +5670,9 @@
       <c r="A36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="58"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="33" t="s">
         <v>3</v>
       </c>
@@ -7386,9 +5694,9 @@
       <c r="A37" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="33" t="s">
         <v>5</v>
       </c>
@@ -7408,9 +5716,9 @@
       <c r="A38" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="33" t="s">
         <v>6</v>
       </c>
@@ -7430,9 +5738,9 @@
       <c r="A39" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="58"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="33" t="s">
         <v>7</v>
       </c>
@@ -7452,9 +5760,9 @@
       <c r="A40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="33" t="s">
         <v>134</v>
       </c>
@@ -7474,9 +5782,9 @@
       <c r="A41" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="38" t="s">
         <v>135</v>
       </c>
@@ -7496,13 +5804,13 @@
       <c r="A42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E42" s="33" t="s">
@@ -7526,9 +5834,9 @@
       <c r="A43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="33" t="s">
         <v>1</v>
       </c>
@@ -7550,9 +5858,9 @@
       <c r="A44" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="33" t="s">
         <v>0</v>
       </c>
@@ -7574,11 +5882,11 @@
       <c r="A45" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="55" t="s">
+      <c r="B45" s="63"/>
+      <c r="C45" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E45" s="33" t="s">
@@ -7602,9 +5910,9 @@
       <c r="A46" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="58"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="33" t="s">
         <v>3</v>
       </c>
@@ -7626,9 +5934,9 @@
       <c r="A47" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="58"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="33" t="s">
         <v>5</v>
       </c>
@@ -7648,9 +5956,9 @@
       <c r="A48" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="58"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="33" t="s">
         <v>6</v>
       </c>
@@ -7670,9 +5978,9 @@
       <c r="A49" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="58"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="33" t="s">
         <v>7</v>
       </c>
@@ -7692,9 +6000,9 @@
       <c r="A50" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="58"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="33" t="s">
         <v>134</v>
       </c>
@@ -7714,9 +6022,9 @@
       <c r="A51" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="38" t="s">
         <v>135</v>
       </c>
@@ -7736,13 +6044,13 @@
       <c r="A52" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E52" s="33" t="s">
@@ -7766,9 +6074,9 @@
       <c r="A53" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="33" t="s">
         <v>1</v>
       </c>
@@ -7790,9 +6098,9 @@
       <c r="A54" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="33" t="s">
         <v>0</v>
       </c>
@@ -7814,11 +6122,11 @@
       <c r="A55" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="55" t="s">
+      <c r="B55" s="63"/>
+      <c r="C55" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E55" s="33" t="s">
@@ -7842,9 +6150,9 @@
       <c r="A56" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="58"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="33" t="s">
         <v>3</v>
       </c>
@@ -7866,9 +6174,9 @@
       <c r="A57" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="58"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="33" t="s">
         <v>5</v>
       </c>
@@ -7888,9 +6196,9 @@
       <c r="A58" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="58"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="33" t="s">
         <v>6</v>
       </c>
@@ -7910,9 +6218,9 @@
       <c r="A59" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="58"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="33" t="s">
         <v>7</v>
       </c>
@@ -7932,9 +6240,9 @@
       <c r="A60" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="58"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="33" t="s">
         <v>134</v>
       </c>
@@ -7954,9 +6262,9 @@
       <c r="A61" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="60"/>
       <c r="E61" s="35" t="s">
         <v>135</v>
       </c>
@@ -7976,13 +6284,13 @@
       <c r="A62" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E62" s="33" t="s">
@@ -8006,9 +6314,9 @@
       <c r="A63" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="33" t="s">
         <v>1</v>
       </c>
@@ -8030,9 +6338,9 @@
       <c r="A64" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="33" t="s">
         <v>0</v>
       </c>
@@ -8054,11 +6362,11 @@
       <c r="A65" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="55" t="s">
+      <c r="B65" s="63"/>
+      <c r="C65" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E65" s="33" t="s">
@@ -8082,9 +6390,9 @@
       <c r="A66" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="58"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="33" t="s">
         <v>3</v>
       </c>
@@ -8106,9 +6414,9 @@
       <c r="A67" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="64"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="58"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="59"/>
       <c r="E67" s="33" t="s">
         <v>5</v>
       </c>
@@ -8128,9 +6436,9 @@
       <c r="A68" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="64"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="58"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="33" t="s">
         <v>6</v>
       </c>
@@ -8150,9 +6458,9 @@
       <c r="A69" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="58"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="33" t="s">
         <v>7</v>
       </c>
@@ -8172,9 +6480,9 @@
       <c r="A70" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="64"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="58"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="33" t="s">
         <v>134</v>
       </c>
@@ -8194,9 +6502,9 @@
       <c r="A71" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="59"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="60"/>
       <c r="E71" s="35" t="s">
         <v>135</v>
       </c>
@@ -8216,13 +6524,13 @@
       <c r="A72" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E72" s="33" t="s">
@@ -8246,9 +6554,9 @@
       <c r="A73" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="61"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="56"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="33" t="s">
         <v>1</v>
       </c>
@@ -8270,9 +6578,9 @@
       <c r="A74" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="61"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="33" t="s">
         <v>0</v>
       </c>
@@ -8294,11 +6602,11 @@
       <c r="A75" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="61"/>
-      <c r="C75" s="55" t="s">
+      <c r="B75" s="66"/>
+      <c r="C75" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E75" s="33" t="s">
@@ -8322,9 +6630,9 @@
       <c r="A76" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="61"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="58"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="59"/>
       <c r="E76" s="33" t="s">
         <v>3</v>
       </c>
@@ -8346,9 +6654,9 @@
       <c r="A77" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="61"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="58"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="33" t="s">
         <v>5</v>
       </c>
@@ -8368,9 +6676,9 @@
       <c r="A78" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="61"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="58"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="33" t="s">
         <v>6</v>
       </c>
@@ -8390,9 +6698,9 @@
       <c r="A79" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="61"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="33" t="s">
         <v>7</v>
       </c>
@@ -8412,9 +6720,9 @@
       <c r="A80" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="61"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="58"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="33" t="s">
         <v>134</v>
       </c>
@@ -8434,9 +6742,9 @@
       <c r="A81" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="62"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="59"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="60"/>
       <c r="E81" s="35" t="s">
         <v>135</v>
       </c>
@@ -8456,13 +6764,13 @@
       <c r="A82" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E82" s="33" t="s">
@@ -8486,9 +6794,9 @@
       <c r="A83" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="64"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="56"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="33" t="s">
         <v>1</v>
       </c>
@@ -8510,9 +6818,9 @@
       <c r="A84" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="33" t="s">
         <v>0</v>
       </c>
@@ -8534,11 +6842,11 @@
       <c r="A85" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="55" t="s">
+      <c r="B85" s="63"/>
+      <c r="C85" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E85" s="33" t="s">
@@ -8562,9 +6870,9 @@
       <c r="A86" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="64"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="58"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="59"/>
       <c r="E86" s="33" t="s">
         <v>3</v>
       </c>
@@ -8586,9 +6894,9 @@
       <c r="A87" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="64"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="58"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="59"/>
       <c r="E87" s="33" t="s">
         <v>5</v>
       </c>
@@ -8608,9 +6916,9 @@
       <c r="A88" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="58"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="59"/>
       <c r="E88" s="33" t="s">
         <v>6</v>
       </c>
@@ -8630,9 +6938,9 @@
       <c r="A89" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="64"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="58"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="59"/>
       <c r="E89" s="33" t="s">
         <v>7</v>
       </c>
@@ -8652,9 +6960,9 @@
       <c r="A90" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="64"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="58"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="59"/>
       <c r="E90" s="33" t="s">
         <v>134</v>
       </c>
@@ -8674,9 +6982,9 @@
       <c r="A91" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="65"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="59"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="60"/>
       <c r="E91" s="35" t="s">
         <v>135</v>
       </c>
@@ -8696,13 +7004,13 @@
       <c r="A92" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="60" t="s">
+      <c r="B92" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="C92" s="55" t="s">
+      <c r="C92" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E92" s="33" t="s">
@@ -8726,9 +7034,9 @@
       <c r="A93" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="61"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="56"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="57"/>
       <c r="E93" s="33" t="s">
         <v>1</v>
       </c>
@@ -8750,9 +7058,9 @@
       <c r="A94" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="61"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="56"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="57"/>
       <c r="E94" s="33" t="s">
         <v>0</v>
       </c>
@@ -8774,11 +7082,11 @@
       <c r="A95" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="61"/>
-      <c r="C95" s="55" t="s">
+      <c r="B95" s="66"/>
+      <c r="C95" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D95" s="58" t="s">
+      <c r="D95" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E95" s="33" t="s">
@@ -8802,9 +7110,9 @@
       <c r="A96" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="61"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="58"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="33" t="s">
         <v>3</v>
       </c>
@@ -8826,9 +7134,9 @@
       <c r="A97" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="61"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="58"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="33" t="s">
         <v>5</v>
       </c>
@@ -8848,9 +7156,9 @@
       <c r="A98" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="61"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="58"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="33" t="s">
         <v>6</v>
       </c>
@@ -8870,9 +7178,9 @@
       <c r="A99" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="61"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="58"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="33" t="s">
         <v>7</v>
       </c>
@@ -8892,9 +7200,9 @@
       <c r="A100" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="61"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="58"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="33" t="s">
         <v>134</v>
       </c>
@@ -8914,9 +7222,9 @@
       <c r="A101" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="59"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="60"/>
       <c r="E101" s="35" t="s">
         <v>135</v>
       </c>
@@ -8936,13 +7244,13 @@
       <c r="A102" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C102" s="55" t="s">
+      <c r="C102" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D102" s="56" t="s">
+      <c r="D102" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E102" s="33" t="s">
@@ -8965,9 +7273,9 @@
       <c r="A103" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B103" s="53"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="56"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="57"/>
       <c r="E103" s="33" t="s">
         <v>1</v>
       </c>
@@ -8988,9 +7296,9 @@
       <c r="A104" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="56"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="57"/>
       <c r="E104" s="33" t="s">
         <v>0</v>
       </c>
@@ -9011,11 +7319,11 @@
       <c r="A105" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B105" s="53"/>
-      <c r="C105" s="55" t="s">
+      <c r="B105" s="54"/>
+      <c r="C105" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D105" s="58" t="s">
+      <c r="D105" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E105" s="33" t="s">
@@ -9038,9 +7346,9 @@
       <c r="A106" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B106" s="53"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="58"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="33" t="s">
         <v>3</v>
       </c>
@@ -9061,9 +7369,9 @@
       <c r="A107" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="53"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="58"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="33" t="s">
         <v>5</v>
       </c>
@@ -9081,9 +7389,9 @@
       <c r="A108" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B108" s="53"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="58"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="33" t="s">
         <v>6</v>
       </c>
@@ -9101,9 +7409,9 @@
       <c r="A109" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="53"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="58"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="59"/>
       <c r="E109" s="33" t="s">
         <v>7</v>
       </c>
@@ -9121,9 +7429,9 @@
       <c r="A110" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="53"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="58"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="59"/>
       <c r="E110" s="33" t="s">
         <v>134</v>
       </c>
@@ -9141,9 +7449,9 @@
       <c r="A111" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B111" s="54"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="59"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="60"/>
       <c r="E111" s="38" t="s">
         <v>135</v>
       </c>
@@ -9162,13 +7470,13 @@
       <c r="A112" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="53" t="s">
+      <c r="B112" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C112" s="66" t="s">
+      <c r="C112" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="D112" s="56" t="s">
+      <c r="D112" s="57" t="s">
         <v>167</v>
       </c>
       <c r="E112" s="33" t="s">
@@ -9191,9 +7499,9 @@
       <c r="A113" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B113" s="53"/>
-      <c r="C113" s="55"/>
-      <c r="D113" s="56"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="33" t="s">
         <v>1</v>
       </c>
@@ -9214,9 +7522,9 @@
       <c r="A114" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B114" s="53"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="56"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="57"/>
       <c r="E114" s="33" t="s">
         <v>0</v>
       </c>
@@ -9237,11 +7545,11 @@
       <c r="A115" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B115" s="53"/>
-      <c r="C115" s="55" t="s">
+      <c r="B115" s="54"/>
+      <c r="C115" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D115" s="58" t="s">
+      <c r="D115" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E115" s="33" t="s">
@@ -9264,9 +7572,9 @@
       <c r="A116" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B116" s="53"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="58"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="59"/>
       <c r="E116" s="33" t="s">
         <v>3</v>
       </c>
@@ -9287,9 +7595,9 @@
       <c r="A117" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B117" s="53"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="58"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="59"/>
       <c r="E117" s="33" t="s">
         <v>5</v>
       </c>
@@ -9307,9 +7615,9 @@
       <c r="A118" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B118" s="53"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="58"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="59"/>
       <c r="E118" s="33" t="s">
         <v>6</v>
       </c>
@@ -9327,9 +7635,9 @@
       <c r="A119" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="53"/>
-      <c r="C119" s="55"/>
-      <c r="D119" s="58"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="59"/>
       <c r="E119" s="33" t="s">
         <v>7</v>
       </c>
@@ -9347,9 +7655,9 @@
       <c r="A120" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B120" s="53"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="58"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="59"/>
       <c r="E120" s="33" t="s">
         <v>134</v>
       </c>
@@ -9367,9 +7675,9 @@
       <c r="A121" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B121" s="54"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="59"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="60"/>
       <c r="E121" s="38" t="s">
         <v>135</v>
       </c>
@@ -9388,13 +7696,13 @@
       <c r="A122" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B122" s="53" t="s">
+      <c r="B122" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C122" s="55" t="s">
+      <c r="C122" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D122" s="56" t="s">
+      <c r="D122" s="57" t="s">
         <v>166</v>
       </c>
       <c r="E122" s="33" t="s">
@@ -9417,9 +7725,9 @@
       <c r="A123" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B123" s="53"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="56"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="33" t="s">
         <v>1</v>
       </c>
@@ -9440,9 +7748,9 @@
       <c r="A124" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="56"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="57"/>
       <c r="E124" s="33" t="s">
         <v>0</v>
       </c>
@@ -9463,11 +7771,11 @@
       <c r="A125" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B125" s="53"/>
-      <c r="C125" s="55" t="s">
+      <c r="B125" s="54"/>
+      <c r="C125" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D125" s="58" t="s">
+      <c r="D125" s="59" t="s">
         <v>158</v>
       </c>
       <c r="E125" s="33" t="s">
@@ -9490,9 +7798,9 @@
       <c r="A126" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B126" s="53"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="58"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="59"/>
       <c r="E126" s="33" t="s">
         <v>3</v>
       </c>
@@ -9513,9 +7821,9 @@
       <c r="A127" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="55"/>
-      <c r="D127" s="58"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="59"/>
       <c r="E127" s="33" t="s">
         <v>5</v>
       </c>
@@ -9533,9 +7841,9 @@
       <c r="A128" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B128" s="53"/>
-      <c r="C128" s="55"/>
-      <c r="D128" s="58"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="59"/>
       <c r="E128" s="33" t="s">
         <v>6</v>
       </c>
@@ -9553,9 +7861,9 @@
       <c r="A129" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B129" s="53"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="58"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="59"/>
       <c r="E129" s="33" t="s">
         <v>7</v>
       </c>
@@ -9573,9 +7881,9 @@
       <c r="A130" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="53"/>
-      <c r="C130" s="55"/>
-      <c r="D130" s="58"/>
+      <c r="B130" s="54"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="59"/>
       <c r="E130" s="33" t="s">
         <v>134</v>
       </c>
@@ -9593,9 +7901,9 @@
       <c r="A131" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B131" s="54"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="59"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="60"/>
       <c r="E131" s="38" t="s">
         <v>135</v>
       </c>
@@ -9612,71 +7920,71 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="C125:C131"/>
+    <mergeCell ref="D125:D131"/>
+    <mergeCell ref="B92:B101"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D95:D101"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C85:C91"/>
+    <mergeCell ref="D85:D91"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="D75:D81"/>
+    <mergeCell ref="B72:B81"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="B102:B111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
     <mergeCell ref="D112:D114"/>
     <mergeCell ref="C112:C114"/>
     <mergeCell ref="C115:C121"/>
     <mergeCell ref="D115:D121"/>
     <mergeCell ref="B112:B121"/>
-    <mergeCell ref="B102:B111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="C75:C81"/>
-    <mergeCell ref="D75:D81"/>
-    <mergeCell ref="B72:B81"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C85:C91"/>
-    <mergeCell ref="D85:D91"/>
-    <mergeCell ref="B92:B101"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D95:D101"/>
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="C125:C131"/>
-    <mergeCell ref="D125:D131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11034,302 +9342,302 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="C2:E18 G2:G18 C19:G19 D20:E21 E22:E29 G20:G29 E33:E41 G33:G41 G47:G53 E30:G32 C22:D42 E42:G42 A2:A46 C43:G46 B2:B11 B31 A54:G55 A1:G1 A48:E53 A47:G47 A57:F57 A59:F59">
-    <cfRule type="expression" dxfId="59" priority="83">
+    <cfRule type="expression" dxfId="62" priority="83">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F53">
-    <cfRule type="expression" dxfId="58" priority="79">
+    <cfRule type="expression" dxfId="61" priority="79">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F9">
-    <cfRule type="expression" dxfId="57" priority="78">
+    <cfRule type="expression" dxfId="60" priority="78">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="56" priority="76">
+    <cfRule type="expression" dxfId="59" priority="76">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="55" priority="75">
+    <cfRule type="expression" dxfId="58" priority="75">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 F18">
-    <cfRule type="expression" dxfId="54" priority="72">
+    <cfRule type="expression" dxfId="57" priority="72">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F14">
-    <cfRule type="expression" dxfId="53" priority="71">
+    <cfRule type="expression" dxfId="56" priority="71">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="52" priority="70">
+    <cfRule type="expression" dxfId="55" priority="70">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="51" priority="69">
+    <cfRule type="expression" dxfId="54" priority="69">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C21">
-    <cfRule type="expression" dxfId="50" priority="67">
+    <cfRule type="expression" dxfId="53" priority="67">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="49" priority="66">
+    <cfRule type="expression" dxfId="52" priority="66">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="48" priority="65">
+    <cfRule type="expression" dxfId="51" priority="65">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29 F26">
-    <cfRule type="expression" dxfId="47" priority="61">
+    <cfRule type="expression" dxfId="50" priority="61">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22 F25">
-    <cfRule type="expression" dxfId="46" priority="60">
+    <cfRule type="expression" dxfId="49" priority="60">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="45" priority="59">
+    <cfRule type="expression" dxfId="48" priority="59">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="44" priority="58">
+    <cfRule type="expression" dxfId="47" priority="58">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="43" priority="57">
+    <cfRule type="expression" dxfId="46" priority="57">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="42" priority="56">
+    <cfRule type="expression" dxfId="45" priority="56">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="expression" dxfId="41" priority="49">
+    <cfRule type="expression" dxfId="44" priority="49">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F41">
-    <cfRule type="expression" dxfId="40" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F33">
-    <cfRule type="expression" dxfId="39" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="38" priority="45">
+    <cfRule type="expression" dxfId="41" priority="45">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="36" priority="41">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="26" priority="24">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11338,6 +9646,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A66CFC27A374A439CA36EC5C52212AB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e83332d803fceaec749514177271b4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7bce7ffc-d989-4a64-81a9-6697d7d53442" xmlns:ns4="22111a66-ae43-4baa-af6d-823d2d5129dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a8bb3451e9f46feff6911d2151e745f" ns3:_="" ns4:_="">
     <xsd:import namespace="7bce7ffc-d989-4a64-81a9-6697d7d53442"/>
@@ -11560,22 +9883,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63DA6F0E-5F13-4376-A121-87037A881570}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7bce7ffc-d989-4a64-81a9-6697d7d53442"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22111a66-ae43-4baa-af6d-823d2d5129dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A412EE6C-3D56-4429-B106-E69750182C61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99EE8CEF-ED49-490E-9639-2482A937B9BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11592,29 +9925,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A412EE6C-3D56-4429-B106-E69750182C61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63DA6F0E-5F13-4376-A121-87037A881570}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7bce7ffc-d989-4a64-81a9-6697d7d53442"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22111a66-ae43-4baa-af6d-823d2d5129dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>